--- a/docs/HourList.xlsx
+++ b/docs/HourList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\Input\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD7660-77EA-4AC3-8034-80111791B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEE89F7-E6D6-4B8A-BB41-E1B0D56D575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="3750" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>Andreas Hasenschwandtner</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Zeit</t>
+  </si>
+  <si>
+    <t>15 Minuten</t>
+  </si>
+  <si>
+    <t>50 Minuten</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -282,12 +288,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -298,6 +315,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -579,6 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8818FCC-4413-4E18-92E6-F8DA99103C3F}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -592,10 +611,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,12 +733,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,144 +746,169 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" cm="1">
-        <f t="array" ref="C26">(ZeitSumme(C3:C25)/60)</f>
-        <v>19.25</v>
-      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" cm="1">
+        <f t="array" ref="C27">(ZeitSumme(C3:C26)/60)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="https://github.com/2324-3bhif-teaching/Input/issues/9" xr:uid="{EED3E136-8B31-450F-BD11-E9C21D2EAAE6}"/>
     <hyperlink ref="A10" r:id="rId2" display="https://github.com/2324-3bhif-teaching/Input/issues/10" xr:uid="{59F0A04F-30E3-46DB-ACC7-9E2B27A16162}"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://github.com/2324-3bhif-teaching/Input/issues/14" xr:uid="{386FA75D-37B2-475B-A728-103F4C4DE56B}"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://github.com/2324-3bhif-teaching/Input/issues/13" xr:uid="{2D172305-8758-4353-B1C2-9B80E5A339C4}"/>
-    <hyperlink ref="A17" r:id="rId5" display="https://github.com/2324-3bhif-teaching/Input/issues/12" xr:uid="{4C0C9F5E-EA78-4B37-8522-F2A9A3E705D6}"/>
-    <hyperlink ref="A18" r:id="rId6" display="https://github.com/2324-3bhif-teaching/Input/issues/15" xr:uid="{0E8F8203-0329-4C7F-9F5A-B026E86595C2}"/>
-    <hyperlink ref="A19" r:id="rId7" display="https://github.com/2324-3bhif-teaching/Input/issues/35" xr:uid="{99E354A6-DBDB-4B26-A2C9-D8DB23902844}"/>
-    <hyperlink ref="A20" r:id="rId8" display="https://github.com/2324-3bhif-teaching/Input/issues/36" xr:uid="{2767DF0A-7E50-4216-B532-7746AFAD320C}"/>
-    <hyperlink ref="A21" r:id="rId9" display="https://github.com/2324-3bhif-teaching/Input/issues/19" xr:uid="{CC4980DA-51EB-40DE-9796-5C1298DD816B}"/>
-    <hyperlink ref="A22" r:id="rId10" display="https://github.com/2324-3bhif-teaching/Input/issues/18" xr:uid="{A37ED17B-A161-4931-83D9-56B7AE2ED053}"/>
-    <hyperlink ref="A23" r:id="rId11" display="https://github.com/2324-3bhif-teaching/Input/issues/17" xr:uid="{64848DE6-A990-4809-B92F-0757D8176107}"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://github.com/2324-3bhif-teaching/Input/issues/16" xr:uid="{02192DC4-8E3C-4C79-A8A3-AE8F6C1683FE}"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://github.com/2324-3bhif-teaching/Input/issues/11" xr:uid="{846B986C-F1FE-417C-8E4C-3F7D5DB71423}"/>
+    <hyperlink ref="A15" r:id="rId3" display="https://github.com/2324-3bhif-teaching/Input/issues/14" xr:uid="{386FA75D-37B2-475B-A728-103F4C4DE56B}"/>
+    <hyperlink ref="A17" r:id="rId4" display="https://github.com/2324-3bhif-teaching/Input/issues/13" xr:uid="{2D172305-8758-4353-B1C2-9B80E5A339C4}"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://github.com/2324-3bhif-teaching/Input/issues/12" xr:uid="{4C0C9F5E-EA78-4B37-8522-F2A9A3E705D6}"/>
+    <hyperlink ref="A19" r:id="rId6" display="https://github.com/2324-3bhif-teaching/Input/issues/15" xr:uid="{0E8F8203-0329-4C7F-9F5A-B026E86595C2}"/>
+    <hyperlink ref="A20" r:id="rId7" display="https://github.com/2324-3bhif-teaching/Input/issues/35" xr:uid="{99E354A6-DBDB-4B26-A2C9-D8DB23902844}"/>
+    <hyperlink ref="A21" r:id="rId8" display="https://github.com/2324-3bhif-teaching/Input/issues/36" xr:uid="{2767DF0A-7E50-4216-B532-7746AFAD320C}"/>
+    <hyperlink ref="A22" r:id="rId9" display="https://github.com/2324-3bhif-teaching/Input/issues/19" xr:uid="{CC4980DA-51EB-40DE-9796-5C1298DD816B}"/>
+    <hyperlink ref="A23" r:id="rId10" display="https://github.com/2324-3bhif-teaching/Input/issues/18" xr:uid="{A37ED17B-A161-4931-83D9-56B7AE2ED053}"/>
+    <hyperlink ref="A24" r:id="rId11" display="https://github.com/2324-3bhif-teaching/Input/issues/17" xr:uid="{64848DE6-A990-4809-B92F-0757D8176107}"/>
+    <hyperlink ref="A25" r:id="rId12" display="https://github.com/2324-3bhif-teaching/Input/issues/16" xr:uid="{02192DC4-8E3C-4C79-A8A3-AE8F6C1683FE}"/>
+    <hyperlink ref="A26" r:id="rId13" display="https://github.com/2324-3bhif-teaching/Input/issues/11" xr:uid="{846B986C-F1FE-417C-8E4C-3F7D5DB71423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
